--- a/cui/data/world_scale.xlsx
+++ b/cui/data/world_scale.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstomoki/home/python/navigation_simulator/cui/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,11 +34,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>source: http://www.mol.co.jp/ir-j/data_j/pdf/market1501.pdf</t>
+    <t>converted with graphcel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>converted with graphcel</t>
+    <t>source: http://www.mol.co.jp/ir-j/data_j/pdf/market1512.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -87,6 +92,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,1067 +438,1070 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>37636</v>
+        <v>38367</v>
       </c>
       <c r="B2">
-        <v>1.3636360000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>37667</v>
+        <v>38398</v>
       </c>
       <c r="B3">
-        <v>2.7272729999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>122.71899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>37695</v>
+        <v>38426</v>
       </c>
       <c r="B4">
-        <v>4.0909089999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>125.4562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>37726</v>
+        <v>38457</v>
       </c>
       <c r="B5">
-        <v>5.4545450000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>92.153279999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>37756</v>
+        <v>38487</v>
       </c>
       <c r="B6">
-        <v>6.8181820000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>76.186130000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>37787</v>
+        <v>38518</v>
       </c>
       <c r="B7">
-        <v>8.1818179999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>64.476879999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>37817</v>
+        <v>38548</v>
       </c>
       <c r="B8">
-        <v>9.5454550000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>74.665450000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>37848</v>
+        <v>38579</v>
       </c>
       <c r="B9">
-        <v>10.909090000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>79.531630000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>37879</v>
+        <v>38610</v>
       </c>
       <c r="B10">
-        <v>12.272729999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>76.186130000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>37909</v>
+        <v>38640</v>
       </c>
       <c r="B11">
-        <v>13.63636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>97.627740000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>37940</v>
+        <v>38671</v>
       </c>
       <c r="B12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>141.72749999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>37970</v>
+        <v>38701</v>
       </c>
       <c r="B13">
-        <v>16.36364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>183.85040000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>38001</v>
+        <v>38732</v>
       </c>
       <c r="B14">
-        <v>17.727270000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>149.63499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>38032</v>
+        <v>38763</v>
       </c>
       <c r="B15">
-        <v>19.090910000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>126.0645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>38061</v>
+        <v>38791</v>
       </c>
       <c r="B16">
-        <v>20.454550000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>105.68729999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>38092</v>
+        <v>38822</v>
       </c>
       <c r="B17">
-        <v>21.818180000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>76.490260000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>38122</v>
+        <v>38852</v>
       </c>
       <c r="B18">
-        <v>23.181819999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>65.845500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>38153</v>
+        <v>38883</v>
       </c>
       <c r="B19">
-        <v>24.545449999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>85.310220000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>38183</v>
+        <v>38913</v>
       </c>
       <c r="B20">
-        <v>25.909089999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>113.44280000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>38214</v>
+        <v>38944</v>
       </c>
       <c r="B21">
-        <v>27.272729999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>123.0231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>38245</v>
+        <v>38975</v>
       </c>
       <c r="B22">
-        <v>28.63636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>119.37350000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>38275</v>
+        <v>39005</v>
       </c>
       <c r="B23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>103.8625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>38306</v>
+        <v>39036</v>
       </c>
       <c r="B24">
-        <v>31.36364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>74.665450000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>38336</v>
+        <v>39066</v>
       </c>
       <c r="B25">
-        <v>32.727269999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>65.237229999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>38367</v>
+        <v>39097</v>
       </c>
       <c r="B26">
-        <v>34.090910000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>62.043799999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>38398</v>
+        <v>39128</v>
       </c>
       <c r="B27">
-        <v>35.454540000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>62.956200000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>38426</v>
+        <v>39156</v>
       </c>
       <c r="B28">
-        <v>36.818179999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>67.062039999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>38457</v>
+        <v>39187</v>
       </c>
       <c r="B29">
-        <v>38.181820000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>81.20438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>38487</v>
+        <v>39217</v>
       </c>
       <c r="B30">
-        <v>39.545459999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>69.799270000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>38518</v>
+        <v>39248</v>
       </c>
       <c r="B31">
-        <v>40.909089999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>81.052310000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>38548</v>
+        <v>39278</v>
       </c>
       <c r="B32">
-        <v>42.272730000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>64.020679999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>38579</v>
+        <v>39309</v>
       </c>
       <c r="B33">
-        <v>43.636360000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>57.63382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>38610</v>
+        <v>39340</v>
       </c>
       <c r="B34">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>56.113140000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>38640</v>
+        <v>39370</v>
       </c>
       <c r="B35">
-        <v>46.363639999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>56.417270000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>38671</v>
+        <v>39401</v>
       </c>
       <c r="B36">
-        <v>47.727269999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>70.559610000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>38701</v>
+        <v>39431</v>
       </c>
       <c r="B37">
-        <v>49.090910000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>129.56200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>38732</v>
+        <v>39462</v>
       </c>
       <c r="B38">
-        <v>50.454540000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>240.82599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>38763</v>
+        <v>39493</v>
       </c>
       <c r="B39">
-        <v>51.818179999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>137.6217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>38791</v>
+        <v>39522</v>
       </c>
       <c r="B40">
-        <v>53.181820000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>116.9404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>38822</v>
+        <v>39553</v>
       </c>
       <c r="B41">
-        <v>54.545459999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>114.5073</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>38852</v>
+        <v>39583</v>
       </c>
       <c r="B42">
-        <v>55.909089999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>132.75550000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>38883</v>
+        <v>39614</v>
       </c>
       <c r="B43">
-        <v>57.272730000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>198.29679999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>38913</v>
+        <v>39644</v>
       </c>
       <c r="B44">
-        <v>58.636360000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>203.3151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>38944</v>
+        <v>39675</v>
       </c>
       <c r="B45">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>227.64599999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>38975</v>
+        <v>39706</v>
       </c>
       <c r="B46">
-        <v>61.363639999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>98.692210000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>39005</v>
+        <v>39736</v>
       </c>
       <c r="B47">
-        <v>62.727269999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>115.8759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>39036</v>
+        <v>39767</v>
       </c>
       <c r="B48">
-        <v>64.090909999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>100.517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>39066</v>
+        <v>39797</v>
       </c>
       <c r="B49">
-        <v>65.454539999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>69.951340000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>39097</v>
+        <v>39828</v>
       </c>
       <c r="B50">
-        <v>66.818179999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>74.361310000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>39128</v>
+        <v>39859</v>
       </c>
       <c r="B51">
-        <v>68.181820000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>56.721409999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>39156</v>
+        <v>39887</v>
       </c>
       <c r="B52">
-        <v>69.545460000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>45.164230000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>39187</v>
+        <v>39918</v>
       </c>
       <c r="B53">
-        <v>70.909090000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>39.689779999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>39217</v>
+        <v>39948</v>
       </c>
       <c r="B54">
-        <v>72.272729999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>31.478100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>39248</v>
+        <v>39979</v>
       </c>
       <c r="B55">
-        <v>73.636359999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>32.694650000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>39278</v>
+        <v>40009</v>
       </c>
       <c r="B56">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>47.597320000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>39309</v>
+        <v>40040</v>
       </c>
       <c r="B57">
-        <v>76.363640000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>37.408760000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>39340</v>
+        <v>40071</v>
       </c>
       <c r="B58">
-        <v>77.727270000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>38.777369999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>39370</v>
+        <v>40101</v>
       </c>
       <c r="B59">
-        <v>79.090909999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>35.279800000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>39401</v>
+        <v>40132</v>
       </c>
       <c r="B60">
-        <v>80.454539999999994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>43.339419999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>39431</v>
+        <v>40162</v>
       </c>
       <c r="B61">
-        <v>81.818179999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>48.509729999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>39462</v>
+        <v>40193</v>
       </c>
       <c r="B62">
-        <v>83.181820000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>62.652070000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>39493</v>
+        <v>40224</v>
       </c>
       <c r="B63">
-        <v>84.545460000000006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>104.4708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>39522</v>
+        <v>40252</v>
       </c>
       <c r="B64">
-        <v>85.909090000000006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>79.227490000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>39553</v>
+        <v>40283</v>
       </c>
       <c r="B65">
-        <v>87.272729999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>83.181269999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>39583</v>
+        <v>40313</v>
       </c>
       <c r="B66">
-        <v>88.636359999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>94.738439999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>39614</v>
+        <v>40344</v>
       </c>
       <c r="B67">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>74.665450000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>39644</v>
+        <v>40374</v>
       </c>
       <c r="B68">
-        <v>91.363640000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>94.130170000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>39675</v>
+        <v>40405</v>
       </c>
       <c r="B69">
-        <v>92.727270000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>61.587589999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>39706</v>
+        <v>40436</v>
       </c>
       <c r="B70">
-        <v>94.090909999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>53.375909999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>39736</v>
+        <v>40466</v>
       </c>
       <c r="B71">
-        <v>95.454539999999994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>48.813870000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>39767</v>
+        <v>40497</v>
       </c>
       <c r="B72">
-        <v>96.818179999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>47.293190000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>39797</v>
+        <v>40527</v>
       </c>
       <c r="B73">
-        <v>98.181820000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>69.799270000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>39828</v>
+        <v>40558</v>
       </c>
       <c r="B74">
-        <v>99.545460000000006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>59.610709999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>39859</v>
+        <v>40589</v>
       </c>
       <c r="B75">
-        <v>100.9091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>47.90146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>39887</v>
+        <v>40617</v>
       </c>
       <c r="B76">
-        <v>102.2727</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>63.108269999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>39918</v>
+        <v>40648</v>
       </c>
       <c r="B77">
-        <v>103.63639999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>64.020679999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>39948</v>
+        <v>40678</v>
       </c>
       <c r="B78">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>53.223840000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>39979</v>
+        <v>40709</v>
       </c>
       <c r="B79">
-        <v>106.36360000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>51.094889999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>40009</v>
+        <v>40739</v>
       </c>
       <c r="B80">
-        <v>107.7273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>56.873480000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>40040</v>
+        <v>40770</v>
       </c>
       <c r="B81">
-        <v>109.0909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>51.246960000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>40071</v>
+        <v>40801</v>
       </c>
       <c r="B82">
-        <v>110.4545</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>48.205599999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>40101</v>
+        <v>40831</v>
       </c>
       <c r="B83">
-        <v>111.8182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>46.076639999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B84">
-        <v>113.1818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>46.989049999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>40162</v>
+        <v>40892</v>
       </c>
       <c r="B85">
-        <v>114.5455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>58.242089999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>40193</v>
+        <v>40923</v>
       </c>
       <c r="B86">
-        <v>115.9091</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>58.546230000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>40224</v>
+        <v>40954</v>
       </c>
       <c r="B87">
-        <v>117.2727</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>57.937959999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>40252</v>
+        <v>40983</v>
       </c>
       <c r="B88">
-        <v>118.63639999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>52.463500000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>40283</v>
+        <v>41014</v>
       </c>
       <c r="B89">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>60.06691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>40313</v>
+        <v>41044</v>
       </c>
       <c r="B90">
-        <v>121.36360000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>64.172749999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>40344</v>
+        <v>41075</v>
       </c>
       <c r="B91">
-        <v>122.7273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>59.154499999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>40374</v>
+        <v>41105</v>
       </c>
       <c r="B92">
-        <v>124.0909</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>47.90146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>40405</v>
+        <v>41136</v>
       </c>
       <c r="B93">
-        <v>125.4545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>36.952559999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>40436</v>
+        <v>41167</v>
       </c>
       <c r="B94">
-        <v>126.8182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>36.040149999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>40466</v>
+        <v>41197</v>
       </c>
       <c r="B95">
-        <v>128.18180000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>38.473239999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>40497</v>
+        <v>41228</v>
       </c>
       <c r="B96">
-        <v>129.5455</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>37.864960000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>40527</v>
+        <v>41258</v>
       </c>
       <c r="B97">
-        <v>130.9091</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>45.46837</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>40558</v>
+        <v>41289</v>
       </c>
       <c r="B98">
-        <v>132.27269999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>47.293190000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>40589</v>
+        <v>41320</v>
       </c>
       <c r="B99">
-        <v>133.63640000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>41.666670000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>40617</v>
+        <v>41348</v>
       </c>
       <c r="B100">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>35.431870000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>40648</v>
+        <v>41379</v>
       </c>
       <c r="B101">
-        <v>136.36359999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>34.367400000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>40678</v>
+        <v>41409</v>
       </c>
       <c r="B102">
-        <v>137.72730000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>32.998779999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>40709</v>
+        <v>41440</v>
       </c>
       <c r="B103">
-        <v>139.0909</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>38.017029999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>40739</v>
+        <v>41470</v>
       </c>
       <c r="B104">
-        <v>140.4545</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>41.818730000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>40770</v>
+        <v>41501</v>
       </c>
       <c r="B105">
-        <v>141.81819999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>42.427010000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>40801</v>
+        <v>41532</v>
       </c>
       <c r="B106">
-        <v>143.18180000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>34.823599999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>40831</v>
+        <v>41562</v>
       </c>
       <c r="B107">
-        <v>144.5455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>34.06326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>40862</v>
+        <v>41593</v>
       </c>
       <c r="B108">
-        <v>145.9091</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>38.1691</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>40892</v>
+        <v>41623</v>
       </c>
       <c r="B109">
-        <v>147.27269999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>51.855229999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>40923</v>
+        <v>41654</v>
       </c>
       <c r="B110">
-        <v>148.63640000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>40954</v>
+        <v>41685</v>
       </c>
       <c r="B111">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>58.242089999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>40983</v>
+        <v>41713</v>
       </c>
       <c r="B112">
-        <v>151.36359999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>56.721409999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>41014</v>
+        <v>41744</v>
       </c>
       <c r="B113">
-        <v>152.72730000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>47.597320000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>41044</v>
+        <v>41774</v>
       </c>
       <c r="B114">
-        <v>154.0909</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>42.122869999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>41075</v>
+        <v>41805</v>
       </c>
       <c r="B115">
-        <v>155.4545</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>38.1691</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>41105</v>
+        <v>41835</v>
       </c>
       <c r="B116">
-        <v>156.81819999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>38.92944</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>41136</v>
+        <v>41866</v>
       </c>
       <c r="B117">
-        <v>158.18180000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>46.532850000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>41167</v>
+        <v>41897</v>
       </c>
       <c r="B118">
-        <v>159.5455</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>48.813870000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>41197</v>
+        <v>41927</v>
       </c>
       <c r="B119">
-        <v>160.9091</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>43.947690000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>41228</v>
+        <v>41958</v>
       </c>
       <c r="B120">
-        <v>162.27269999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>43.339419999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>41258</v>
+        <v>41988</v>
       </c>
       <c r="B121">
-        <v>163.63640000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>53.223840000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>41289</v>
+        <v>42019</v>
       </c>
       <c r="B122">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>61.891730000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>41320</v>
+        <v>42050</v>
       </c>
       <c r="B123">
-        <v>166.36359999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>69.190989999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>41348</v>
+        <v>42078</v>
       </c>
       <c r="B124">
-        <v>167.72730000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>64.933090000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>41379</v>
+        <v>42109</v>
       </c>
       <c r="B125">
-        <v>169.0909</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>54.288319999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>41409</v>
+        <v>42139</v>
       </c>
       <c r="B126">
-        <v>170.4545</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>57.329689999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>41440</v>
+        <v>42170</v>
       </c>
       <c r="B127">
-        <v>171.81819999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>63.716549999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>41470</v>
+        <v>42200</v>
       </c>
       <c r="B128">
-        <v>173.18180000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>66.149640000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>41501</v>
+        <v>42231</v>
       </c>
       <c r="B129">
-        <v>174.5455</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>67.36618</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>41532</v>
+        <v>42262</v>
       </c>
       <c r="B130">
-        <v>175.9091</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>54.744529999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>41562</v>
+        <v>42292</v>
       </c>
       <c r="B131">
-        <v>177.27269999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>48.813870000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>41593</v>
+        <v>42323</v>
       </c>
       <c r="B132">
-        <v>178.63640000000001</v>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B133">
+        <v>68.278589999999994</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>